--- a/Recording LOG HUGO.xlsx
+++ b/Recording LOG HUGO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugovalk/Projects/Projektid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97233D0F-EFE8-4F41-A2F1-8B0D95641DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D140F145-5E21-48EC-B4A9-08A2E6028EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="25">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -121,6 +119,9 @@
   </si>
   <si>
     <t>kordamine</t>
+  </si>
+  <si>
+    <t>praktika</t>
   </si>
 </sst>
 </file>
@@ -903,21 +904,21 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -931,7 +932,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -943,7 +944,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -963,7 +964,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -975,7 +976,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1031,7 +1032,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1083,7 +1084,7 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1109,7 +1110,7 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1133,7 +1134,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1147,7 +1148,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1169,7 +1170,7 @@
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1195,7 +1196,7 @@
       </c>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1219,7 +1220,7 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1245,7 +1246,7 @@
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -1269,7 +1270,7 @@
       </c>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -1283,7 +1284,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -1323,21 +1324,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1352,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -1363,7 +1364,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1384,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -1395,7 +1396,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1439,7 +1440,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1453,7 +1454,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1467,7 +1468,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1481,7 +1482,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1495,7 +1496,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1509,7 +1510,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1523,7 +1524,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1537,7 +1538,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1551,7 +1552,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1565,7 +1566,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -1579,7 +1580,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -1593,7 +1594,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -1633,21 +1634,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1662,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -1673,7 +1674,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -1693,7 +1694,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -1705,7 +1706,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -1735,7 +1736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1749,7 +1750,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1763,7 +1764,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1777,7 +1778,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1791,7 +1792,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1805,7 +1806,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1819,7 +1820,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1833,7 +1834,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1847,7 +1848,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1861,7 +1862,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1875,7 +1876,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -1889,7 +1890,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -1903,7 +1904,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -1943,21 +1944,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +1972,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -1983,7 +1984,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -2003,7 +2004,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -2015,7 +2016,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -2059,7 +2060,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -2073,7 +2074,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -2087,7 +2088,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -2101,7 +2102,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -2115,7 +2116,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -2129,7 +2130,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -2143,7 +2144,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -2157,7 +2158,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -2171,7 +2172,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -2185,7 +2186,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -2199,7 +2200,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -2213,7 +2214,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -2253,21 +2254,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -2281,7 +2282,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -2293,7 +2294,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +2314,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -2325,7 +2326,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -2369,7 +2370,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -2383,7 +2384,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -2397,7 +2398,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -2411,7 +2412,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -2425,7 +2426,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -2439,7 +2440,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -2453,7 +2454,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -2467,7 +2468,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -2481,7 +2482,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -2495,7 +2496,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -2509,7 +2510,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -2523,7 +2524,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -2563,21 +2564,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -2591,7 +2592,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -2603,7 +2604,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -2623,7 +2624,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -2635,7 +2636,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -2679,7 +2680,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -2693,7 +2694,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -2707,7 +2708,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -2721,7 +2722,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -2735,7 +2736,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -2749,7 +2750,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -2763,7 +2764,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -2777,7 +2778,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -2791,7 +2792,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -2805,7 +2806,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -2819,7 +2820,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -2833,7 +2834,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -2873,21 +2874,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +2902,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -2913,7 +2914,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -2933,7 +2934,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -2945,7 +2946,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -2989,7 +2990,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -3003,7 +3004,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -3017,7 +3018,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -3031,7 +3032,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -3045,7 +3046,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -3059,7 +3060,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -3073,7 +3074,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -3087,7 +3088,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -3101,7 +3102,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -3115,7 +3116,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -3129,7 +3130,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -3143,7 +3144,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -3183,21 +3184,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -3211,7 +3212,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -3223,7 +3224,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -3243,7 +3244,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -3255,7 +3256,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -3299,7 +3300,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -3313,7 +3314,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -3327,7 +3328,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -3341,7 +3342,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -3355,7 +3356,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -3369,7 +3370,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -3383,7 +3384,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -3397,7 +3398,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -3411,7 +3412,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -3425,7 +3426,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -3439,7 +3440,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -3453,7 +3454,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -3493,21 +3494,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -3521,7 +3522,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -3533,7 +3534,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -3553,7 +3554,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -3565,7 +3566,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -3609,7 +3610,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -3623,7 +3624,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -3637,7 +3638,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -3651,7 +3652,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -3665,7 +3666,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -3679,7 +3680,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -3693,7 +3694,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -3707,7 +3708,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -3721,7 +3722,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -3735,7 +3736,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -3749,7 +3750,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -3763,7 +3764,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -3799,25 +3800,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="136" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -3831,7 +3832,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -3843,7 +3844,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -3861,7 +3862,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -3873,7 +3874,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -3929,7 +3930,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -3955,7 +3956,7 @@
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -3979,7 +3980,7 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -4003,7 +4004,7 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -4013,29 +4014,50 @@
       <c r="C11" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="5">
+        <v>210</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="7">
+        <f ca="1">TODAY()</f>
+        <v>43869</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.65972222222222221</v>
+      </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="5">
+        <v>170</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -4049,7 +4071,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -4063,7 +4085,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -4077,7 +4099,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -4091,7 +4113,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -4105,7 +4127,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -4119,7 +4141,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -4129,7 +4151,7 @@
       <c r="E19" s="33"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>350</v>
+        <v>730</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -4160,21 +4182,21 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -4188,7 +4210,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -4200,7 +4222,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -4220,7 +4242,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -4232,7 +4254,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -4262,7 +4284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -4276,7 +4298,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -4290,7 +4312,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -4304,7 +4326,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -4318,7 +4340,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -4332,7 +4354,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -4346,7 +4368,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -4360,7 +4382,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -4374,7 +4396,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -4388,7 +4410,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -4402,7 +4424,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -4416,7 +4438,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -4430,7 +4452,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -4470,21 +4492,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -4498,7 +4520,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -4510,7 +4532,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -4530,7 +4552,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -4542,7 +4564,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -4572,7 +4594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -4586,7 +4608,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -4600,7 +4622,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -4614,7 +4636,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -4628,7 +4650,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -4642,7 +4664,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -4656,7 +4678,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -4670,7 +4692,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -4684,7 +4706,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -4698,7 +4720,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -4712,7 +4734,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -4726,7 +4748,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -4740,7 +4762,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -4780,21 +4802,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -4808,7 +4830,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -4820,7 +4842,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -4840,7 +4862,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -4852,7 +4874,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -4882,7 +4904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -4896,7 +4918,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -4910,7 +4932,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -4924,7 +4946,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -4938,7 +4960,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -4952,7 +4974,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -4966,7 +4988,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -4980,7 +5002,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -4994,7 +5016,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -5008,7 +5030,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -5022,7 +5044,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -5036,7 +5058,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -5050,7 +5072,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -5090,21 +5112,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -5118,7 +5140,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -5130,7 +5152,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -5150,7 +5172,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -5162,7 +5184,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -5192,7 +5214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -5206,7 +5228,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -5220,7 +5242,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -5234,7 +5256,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -5248,7 +5270,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -5262,7 +5284,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -5276,7 +5298,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -5290,7 +5312,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -5304,7 +5326,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -5318,7 +5340,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -5332,7 +5354,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -5346,7 +5368,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -5360,7 +5382,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -5400,21 +5422,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -5428,7 +5450,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -5440,7 +5462,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -5460,7 +5482,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -5472,7 +5494,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -5502,7 +5524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -5516,7 +5538,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -5530,7 +5552,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -5544,7 +5566,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -5558,7 +5580,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -5572,7 +5594,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -5586,7 +5608,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -5600,7 +5622,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -5614,7 +5636,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -5628,7 +5650,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -5642,7 +5664,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -5656,7 +5678,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -5670,7 +5692,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -5710,21 +5732,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -5738,7 +5760,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -5750,7 +5772,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -5770,7 +5792,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -5782,7 +5804,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -5812,7 +5834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -5826,7 +5848,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -5840,7 +5862,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -5854,7 +5876,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -5868,7 +5890,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -5882,7 +5904,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -5896,7 +5918,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -5910,7 +5932,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -5924,7 +5946,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -5938,7 +5960,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -5952,7 +5974,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -5966,7 +5988,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -5980,7 +6002,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -6020,21 +6042,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -6048,7 +6070,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -6060,7 +6082,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
@@ -6080,7 +6102,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -6092,7 +6114,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
@@ -6122,7 +6144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -6136,7 +6158,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -6150,7 +6172,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -6164,7 +6186,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -6178,7 +6200,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -6192,7 +6214,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -6206,7 +6228,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -6220,7 +6242,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -6234,7 +6256,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -6248,7 +6270,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -6262,7 +6284,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -6276,7 +6298,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -6290,7 +6312,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>

--- a/Recording LOG HUGO.xlsx
+++ b/Recording LOG HUGO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\Proge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D140F145-5E21-48EC-B4A9-08A2E6028EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9CA05C-EDC7-4C38-A45F-F08EABA26A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3801,7 +3801,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="136" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Recording LOG HUGO.xlsx
+++ b/Recording LOG HUGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\Proge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9CA05C-EDC7-4C38-A45F-F08EABA26A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7387954-B109-473F-AEF4-6586FC3167AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3801,7 +3801,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4062,7 +4062,9 @@
         <v>7</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>

--- a/Recording LOG HUGO.xlsx
+++ b/Recording LOG HUGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\Proge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7387954-B109-473F-AEF4-6586FC3167AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175B1CFE-EDCF-4F7C-9A63-C06C6CD55280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="25">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -3801,7 +3801,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="136" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4065,12 +4065,20 @@
       <c r="C13" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>0.75694444444444453</v>
+      </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="5">
+        <v>70</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4153,7 +4161,7 @@
       <c r="E19" s="33"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>730</v>
+        <v>800</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>

--- a/Recording LOG HUGO.xlsx
+++ b/Recording LOG HUGO.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piret\Documents\Desktop\Hugo asjad\Proge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C75CEEA-E0A1-41B0-839A-7EAFA23FDBA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21FBE53-2165-4B48-B6FA-1B4D6C17F4E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="2" r:id="rId1"/>
     <sheet name="Nädal 2" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId3"/>
+    <sheet name="Nädal3" sheetId="18" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>praktika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tund </t>
+  </si>
+  <si>
+    <t>EI luba teha</t>
+  </si>
+  <si>
+    <t>videod+kaasategmine</t>
+  </si>
+  <si>
+    <t>7 kuni 10</t>
+  </si>
+  <si>
+    <t>sain korda ja liigun edasi</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -512,6 +530,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -569,13 +594,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,68 +930,68 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="46">
         <v>43857</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1278,13 +1296,13 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
         <v>1125</v>
@@ -1313,7 +1331,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="136" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="136" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1398,13 +1416,13 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="31">
         <v>43865</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="32">
         <v>0.39583333333333331</v>
       </c>
       <c r="F6" s="3">
@@ -1421,7 +1439,7 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="33">
         <v>43866</v>
       </c>
       <c r="C7" s="2">
@@ -1486,7 +1504,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="33">
         <v>43867</v>
       </c>
       <c r="C10" s="2">
@@ -1509,7 +1527,7 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="33">
         <v>43869</v>
       </c>
       <c r="C11" s="2">
@@ -1553,7 +1571,7 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="33">
         <v>43871</v>
       </c>
       <c r="C13" s="2">
@@ -1657,12 +1675,287 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C917F259-58FC-4127-9B6C-8C04069BEDC6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="33">
+        <v>43872</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="33">
+        <v>43872</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="33">
+        <v>43876</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F8">
+        <v>230</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="33">
+        <v>43877</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="F9">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="F12">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="33">
+        <v>43878</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F13">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>852</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>